--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/15/seed4/result_data_KNN.xlsx
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7.885</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.848</v>
+        <v>-13.163</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.752</v>
+        <v>-21.831</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.372</v>
+        <v>-11.555</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.732</v>
+        <v>-12.89</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.894000000000001</v>
+        <v>-8.348000000000003</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.126</v>
+        <v>-22.151</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.046</v>
+        <v>-20.558</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.432</v>
+        <v>-13.131</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.674</v>
+        <v>-21.761</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.296</v>
+        <v>-13.363</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.684</v>
+        <v>-11.857</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.470000000000001</v>
+        <v>-7.318</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.684</v>
+        <v>-19.732</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.246</v>
+        <v>-7.443000000000001</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.832</v>
+        <v>-13.151</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,10 +1080,10 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-14.788</v>
+        <v>-13.818</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.522</v>
+        <v>-7.825999999999999</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.955999999999999</v>
+        <v>-7.534999999999999</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.534000000000001</v>
+        <v>-7.616</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.470000000000001</v>
+        <v>-7.479000000000001</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.218</v>
+        <v>-12.405</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.178</v>
+        <v>-7.556</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.596</v>
+        <v>-11.361</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.016</v>
+        <v>-13.752</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.23</v>
+        <v>-8.038</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.109999999999999</v>
+        <v>-7.665000000000001</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.668</v>
+        <v>-21.862</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.666</v>
+        <v>-11.78</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-13.926</v>
+        <v>-12.579</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.898000000000001</v>
+        <v>-7.858</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.308</v>
+        <v>-20.306</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.62</v>
+        <v>-19.854</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.756</v>
+        <v>-13.422</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.106</v>
+        <v>-22.154</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.996</v>
+        <v>-21.758</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.008</v>
+        <v>-12.922</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.864</v>
+        <v>-7.816999999999998</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.886</v>
+        <v>-21.758</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.762</v>
+        <v>-8.103999999999999</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.746</v>
+        <v>-13.424</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
